--- a/物料搬运小车引脚(修改).xlsx
+++ b/物料搬运小车引脚(修改).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张伟\Desktop\工训大赛\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE9149F-9B44-4C1A-BE36-7C36C8A1B766}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView xWindow="3648" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>舵机引脚</t>
   </si>
@@ -362,19 +368,33 @@
   </si>
   <si>
     <t>PB8</t>
+  </si>
+  <si>
+    <t>P5（RX）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4（TX）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENMV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,345 +432,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -773,253 +469,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,76 +486,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1359,55 +775,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" ht="16.5" spans="1:17">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +865,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" ht="16.5" spans="1:17">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +895,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1489,7 +906,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" ht="16.5" spans="1:17">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +936,7 @@
       <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +945,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:17">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,7 +975,7 @@
       <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="12" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1569,7 +986,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:17">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1599,7 +1016,7 @@
       <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1608,7 +1025,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1628,7 +1045,7 @@
       <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1639,7 +1056,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" ht="16.5" spans="1:17">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1653,7 +1070,7 @@
       <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1079,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" ht="16.5" spans="1:17">
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1676,27 +1093,27 @@
       <c r="K9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="11" t="s">
         <v>59</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" ht="16.5" spans="1:17">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1707,20 +1124,20 @@
       <c r="K10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="11" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="8" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1745,11 +1162,11 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1770,40 +1187,40 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" ht="16.5" spans="1:17">
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
@@ -1817,8 +1234,10 @@
       <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5" t="s">
         <v>3</v>
@@ -1840,11 +1259,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>79</v>
       </c>
@@ -1858,8 +1277,10 @@
       <c r="G15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5" t="s">
         <v>83</v>
@@ -1874,18 +1295,18 @@
       <c r="O15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>88</v>
       </c>
@@ -1899,8 +1320,10 @@
       <c r="G16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1909,23 +1332,23 @@
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1936,43 +1359,43 @@
       <c r="O17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
         <v>103</v>
       </c>
@@ -1986,8 +1409,8 @@
       <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5" t="s">
         <v>3</v>
@@ -2003,11 +1426,11 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
         <v>105</v>
       </c>
@@ -2021,8 +1444,10 @@
       <c r="G20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5" t="s">
         <v>108</v>
@@ -2038,11 +1463,11 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="5" t="s">
         <v>111</v>
       </c>
@@ -2056,8 +1481,10 @@
       <c r="G21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
         <v>114</v>
@@ -2090,8 +1517,8 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="P15:P17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/物料搬运小车引脚(修改).xlsx
+++ b/物料搬运小车引脚(修改).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张伟\Desktop\工训大赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE9149F-9B44-4C1A-BE36-7C36C8A1B766}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D74B0FD-09C2-4D2B-BDA2-66E916B44382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3648" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
   <si>
     <t>舵机引脚</t>
   </si>
@@ -85,308 +85,425 @@
     <t>TIM1CH2</t>
   </si>
   <si>
+    <t>motorB</t>
+  </si>
+  <si>
+    <t>TIM8CH4</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>motorA_B相</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>servo3</t>
+  </si>
+  <si>
+    <t>TIM1CH3</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>motorC</t>
+  </si>
+  <si>
+    <t>TIM8CH1</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>motorB_A相</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>servo4</t>
+  </si>
+  <si>
+    <t>TIM1CH4</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>motorD</t>
+  </si>
+  <si>
+    <t>TIM8CH2</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>motorB_B相</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>motorC_A相</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>motorC_B相</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>motorD_A相</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>红外寻迹传感器</t>
+  </si>
+  <si>
+    <t>motorD_B相</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>sensor1</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>sensor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PC15</t>
+  </si>
+  <si>
+    <t>串口3</t>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+  </si>
+  <si>
+    <t>按键</t>
+  </si>
+  <si>
+    <t>sensor3</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>sensor4</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>beep</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>sensor5</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>sensor6</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>sensor7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PC13</t>
+  </si>
+  <si>
+    <t>串口5</t>
+  </si>
+  <si>
+    <t>OLED屏幕</t>
+  </si>
+  <si>
+    <t>sensor8</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>UART5_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PC12</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>P5（RX）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4（TX）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENMV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>PA9</t>
-  </si>
-  <si>
-    <t>motorB</t>
-  </si>
-  <si>
-    <t>TIM8CH4</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>motorA_B相</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>servo3</t>
-  </si>
-  <si>
-    <t>TIM1CH3</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
-    <t>motorC</t>
-  </si>
-  <si>
-    <t>TIM8CH1</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>motorB_A相</t>
-  </si>
-  <si>
-    <t>TIM4</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>servo4</t>
-  </si>
-  <si>
-    <t>TIM1CH4</t>
-  </si>
-  <si>
-    <t>PA11</t>
-  </si>
-  <si>
-    <t>motorD</t>
-  </si>
-  <si>
-    <t>TIM8CH2</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>motorB_B相</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>servo5</t>
-  </si>
-  <si>
-    <t>TIM9CH1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PA2</t>
-  </si>
-  <si>
-    <t>motorC_A相</t>
-  </si>
-  <si>
-    <t>TIM5</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>motorC_B相</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>motorD_A相</t>
-  </si>
-  <si>
-    <t>TIM3</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>SWCLK</t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>红外寻迹传感器</t>
-  </si>
-  <si>
-    <t>motorD_B相</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>SWDIO</t>
-  </si>
-  <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>sensor1</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>sensor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PC15</t>
-  </si>
-  <si>
-    <t>串口3</t>
-  </si>
-  <si>
-    <t>蜂鸣器</t>
-  </si>
-  <si>
-    <t>按键</t>
-  </si>
-  <si>
-    <t>sensor3</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>sensor4</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>beep</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>sensor5</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>USART3_RX</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>sensor6</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>sensor7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PC13</t>
-  </si>
-  <si>
-    <t>串口5</t>
-  </si>
-  <si>
-    <t>OLED屏幕</t>
-  </si>
-  <si>
-    <t>sensor8</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>sensor9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PC14</t>
-  </si>
-  <si>
-    <t>UART5_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PC12</t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sensor10</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>UART5_RX</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>P5（RX）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4（TX）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPENMV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeMCU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>servo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IM12CH1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已使用定时器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舵机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM6</t>
+  </si>
+  <si>
+    <t>编码器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM7</t>
+  </si>
+  <si>
+    <t>TIM8</t>
+  </si>
+  <si>
+    <t>TIM9</t>
+  </si>
+  <si>
+    <t>TIM10</t>
+  </si>
+  <si>
+    <t>TIM11</t>
+  </si>
+  <si>
+    <t>TIM12</t>
+  </si>
+  <si>
+    <t>PID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +554,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,6 +636,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +660,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -781,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,25 +964,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -895,7 +1059,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -914,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -947,39 +1111,39 @@
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -988,37 +1152,37 @@
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1026,14 +1190,14 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
+      <c r="A7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1043,13 +1207,13 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1068,11 +1232,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1091,29 +1255,29 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1122,17 +1286,17 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="L10" s="15"/>
       <c r="M10" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1164,13 +1328,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1189,40 +1353,40 @@
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="K13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="O13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
@@ -1235,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
@@ -1261,67 +1425,67 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
@@ -1330,20 +1494,20 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="P16" s="15"/>
       <c r="Q16" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -1357,35 +1521,35 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="P17" s="15"/>
       <c r="Q17" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1393,11 +1557,11 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
@@ -1427,36 +1591,32 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1464,50 +1624,184 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E22:G22"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="B12:B21"/>
@@ -1519,6 +1813,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/物料搬运小车引脚(修改).xlsx
+++ b/物料搬运小车引脚(修改).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张伟\Desktop\工训大赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D74B0FD-09C2-4D2B-BDA2-66E916B44382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E47C6-1208-4C6F-B5F2-5D42C6EC2376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2064" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>舵机引脚</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>uart5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器5min</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码枪</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +657,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,19 +675,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -945,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,25 +978,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1059,7 +1073,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1100,7 +1114,7 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1153,7 @@
       <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1180,7 +1194,7 @@
       <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1209,7 +1223,7 @@
       <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="18" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1234,7 +1248,7 @@
       <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1257,7 +1271,7 @@
       <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1273,11 +1287,11 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1288,7 +1302,7 @@
       <c r="K10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1344,7 @@
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1355,36 +1369,36 @@
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
@@ -1427,7 +1441,7 @@
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="11" t="s">
         <v>101</v>
       </c>
@@ -1459,7 +1473,7 @@
       <c r="O15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="17" t="s">
         <v>63</v>
       </c>
       <c r="Q15" s="5" t="s">
@@ -1470,7 +1484,7 @@
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>81</v>
       </c>
@@ -1496,7 +1510,7 @@
       <c r="O16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="15"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="5" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +1519,7 @@
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
@@ -1523,7 +1537,7 @@
       <c r="O17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="15"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="5" t="s">
         <v>90</v>
       </c>
@@ -1532,7 +1546,7 @@
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
@@ -1545,11 +1559,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1559,7 +1573,7 @@
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1573,7 +1587,9 @@
       <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5" t="s">
@@ -1592,7 +1608,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
@@ -1625,7 +1641,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
@@ -1657,11 +1673,11 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
@@ -1706,23 +1722,23 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1730,66 +1746,77 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="19"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="19"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="13" t="s">
         <v>138</v>
       </c>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="13" t="s">
         <v>139</v>
       </c>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="15" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/物料搬运小车引脚(修改).xlsx
+++ b/物料搬运小车引脚(修改).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张伟\Desktop\工训大赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E47C6-1208-4C6F-B5F2-5D42C6EC2376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DEB547-6CEA-4A76-B5FB-C85DE10A418C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="5760" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>舵机引脚</t>
   </si>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>扫码枪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时寻迹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +670,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,15 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -978,25 +982,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1073,7 +1077,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1114,7 +1118,7 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1157,7 @@
       <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1194,7 +1198,7 @@
       <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1223,7 +1227,7 @@
       <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="21" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1248,7 +1252,7 @@
       <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="18"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1271,7 +1275,7 @@
       <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="20" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1287,11 +1291,11 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1302,7 +1306,7 @@
       <c r="K10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1348,7 @@
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1369,36 +1373,36 @@
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="11" t="s">
         <v>101</v>
       </c>
@@ -1473,7 +1477,7 @@
       <c r="O15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="20" t="s">
         <v>63</v>
       </c>
       <c r="Q15" s="5" t="s">
@@ -1484,7 +1488,7 @@
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>81</v>
       </c>
@@ -1510,7 +1514,7 @@
       <c r="O16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="17"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="5" t="s">
         <v>86</v>
       </c>
@@ -1519,7 +1523,7 @@
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
@@ -1537,7 +1541,7 @@
       <c r="O17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="17"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="5" t="s">
         <v>90</v>
       </c>
@@ -1546,7 +1550,7 @@
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
@@ -1559,11 +1563,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1573,7 +1577,7 @@
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
@@ -1641,7 +1645,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
@@ -1673,11 +1677,11 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
@@ -1741,7 +1745,7 @@
       <c r="A30" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1749,19 +1753,19 @@
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -1801,7 +1805,9 @@
       <c r="A39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -1821,6 +1827,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="P15:P17"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -1829,14 +1843,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="P15:P17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
